--- a/biology/Médecine/Louis_de_La_Forge/Louis_de_La_Forge.xlsx
+++ b/biology/Médecine/Louis_de_La_Forge/Louis_de_La_Forge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis de La Forge, né le 24 novembre 1632 à La Flèche et mort en 1666 à Saumur, est un philosophe français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’un médecin et lui-même docteur en médecine, La Forge était un ami de Descartes dont il adopta le système.
 Théoricien de l’occasionnalisme, il se montra l’un des plus habiles interprètes de cette doctrine qui en vint à dominer le cartésianisme dans son Traité de l'esprit de l'homme, de ses facultés, de ses fonctions et de son union avec le corps, d’après les principes de Descartes (Amsterdam, 1664, in-4°), où il explique la relation de l’âme au corps comme œuvre de la volonté divine et, de façon semblable, l’interaction entre les deux, à l’exception des mouvements qui dépendent de la volonté qu’il considère comme volontaires. L’âme humaine, en conséquence, apparaît comme production et cause immédiate de toutes les actions (mouvements) conscientes et volontaires ; Dieu est, en revanche, la production et la cause immédiate de tous les processus inconscients et involontaires.
@@ -544,9 +558,11 @@
           <t>Aux sources du « paradigme technocratique »</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le théologien catholique Fabien Revol cite Louis de la Forge comme un des premiers zélateurs de la pensée cartésienne, et comme faisant partie des sources du « paradigme technocratique » dénoncé par le pape François dans l'encyclique Laudato si' (2015)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le théologien catholique Fabien Revol cite Louis de la Forge comme un des premiers zélateurs de la pensée cartésienne, et comme faisant partie des sources du « paradigme technocratique » dénoncé par le pape François dans l'encyclique Laudato si' (2015).
 </t>
         </is>
       </c>
